--- a/data/TC008_OneWayTripTest.xlsx
+++ b/data/TC008_OneWayTripTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aravind\eclipse-workspace\Spicejet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5720A8F5-86DB-4106-B7F5-A1E323EB4D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3976B-12E2-4362-A826-4D30BC6E6B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>firstname</t>
   </si>
@@ -48,9 +48,6 @@
     <t>p2lastname</t>
   </si>
   <si>
-    <t>p2mobno</t>
-  </si>
-  <si>
     <t>cardno</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>chennai</t>
   </si>
   <si>
-    <t>vijay</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
     <t>Invalid Card Details</t>
   </si>
   <si>
@@ -105,7 +96,19 @@
     <t>26</t>
   </si>
   <si>
-    <t>123</t>
+    <t>mobno</t>
+  </si>
+  <si>
+    <t>Ajith</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Aravind</t>
+  </si>
+  <si>
+    <t>121</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -487,74 +490,74 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{79E6111A-4012-4FB5-948B-F15816F23B3E}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3066F20D-ACA0-414E-9FA0-24AC6369544D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
